--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_64ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2077,28 +2077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>904.1514225291626</v>
+        <v>976.967560615208</v>
       </c>
       <c r="AB2" t="n">
-        <v>1237.099864649985</v>
+        <v>1336.730117200603</v>
       </c>
       <c r="AC2" t="n">
-        <v>1119.032789848354</v>
+        <v>1209.154470927479</v>
       </c>
       <c r="AD2" t="n">
-        <v>904151.4225291626</v>
+        <v>976967.560615208</v>
       </c>
       <c r="AE2" t="n">
-        <v>1237099.864649985</v>
+        <v>1336730.117200603</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.434382374249833e-06</v>
+        <v>2.424894572273653e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.12543402777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1119032.789848354</v>
+        <v>1209154.470927479</v>
       </c>
     </row>
     <row r="3">
@@ -2183,28 +2183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>422.9210950511462</v>
+        <v>474.9081752194787</v>
       </c>
       <c r="AB3" t="n">
-        <v>578.6593002108798</v>
+        <v>649.7903168053017</v>
       </c>
       <c r="AC3" t="n">
-        <v>523.4328687521813</v>
+        <v>587.7752409558404</v>
       </c>
       <c r="AD3" t="n">
-        <v>422921.0950511462</v>
+        <v>474908.1752194787</v>
       </c>
       <c r="AE3" t="n">
-        <v>578659.3002108798</v>
+        <v>649790.3168053017</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.260298307505969e-06</v>
+        <v>3.821146436254173e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.96484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>523432.8687521814</v>
+        <v>587775.2409558404</v>
       </c>
     </row>
     <row r="4">
@@ -2289,28 +2289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>329.4335365479734</v>
+        <v>371.0914733662967</v>
       </c>
       <c r="AB4" t="n">
-        <v>450.7454982868421</v>
+        <v>507.7437252601377</v>
       </c>
       <c r="AC4" t="n">
-        <v>407.7269805556252</v>
+        <v>459.2853767441036</v>
       </c>
       <c r="AD4" t="n">
-        <v>329433.5365479734</v>
+        <v>371091.4733662967</v>
       </c>
       <c r="AE4" t="n">
-        <v>450745.4982868421</v>
+        <v>507743.7252601377</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.592027824899034e-06</v>
+        <v>4.38195164456559e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.816840277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>407726.9805556252</v>
+        <v>459285.3767441036</v>
       </c>
     </row>
     <row r="5">
@@ -2395,28 +2395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>307.7889283375216</v>
+        <v>349.4468651558449</v>
       </c>
       <c r="AB5" t="n">
-        <v>421.1303904405806</v>
+        <v>478.1286174138762</v>
       </c>
       <c r="AC5" t="n">
-        <v>380.938297037146</v>
+        <v>432.4966932256243</v>
       </c>
       <c r="AD5" t="n">
-        <v>307788.9283375216</v>
+        <v>349446.8651558449</v>
       </c>
       <c r="AE5" t="n">
-        <v>421130.3904405806</v>
+        <v>478128.6174138762</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.685673956603297e-06</v>
+        <v>4.540265076576948e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.543402777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>380938.2970371459</v>
+        <v>432496.6932256243</v>
       </c>
     </row>
   </sheetData>
@@ -2692,28 +2692,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>620.213212834294</v>
+        <v>680.7566198974547</v>
       </c>
       <c r="AB2" t="n">
-        <v>848.6030796757278</v>
+        <v>931.4412402061553</v>
       </c>
       <c r="AC2" t="n">
-        <v>767.6135927733784</v>
+        <v>842.5457955268702</v>
       </c>
       <c r="AD2" t="n">
-        <v>620213.2128342941</v>
+        <v>680756.6198974547</v>
       </c>
       <c r="AE2" t="n">
-        <v>848603.0796757279</v>
+        <v>931441.2402061552</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.770225559510595e-06</v>
+        <v>3.065660705177178e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.84027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>767613.5927733784</v>
+        <v>842545.7955268702</v>
       </c>
     </row>
     <row r="3">
@@ -2798,28 +2798,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>337.5276186915283</v>
+        <v>377.8046387209483</v>
       </c>
       <c r="AB3" t="n">
-        <v>461.8201785613562</v>
+        <v>516.9289742623253</v>
       </c>
       <c r="AC3" t="n">
-        <v>417.7447088881511</v>
+        <v>467.5939984731002</v>
       </c>
       <c r="AD3" t="n">
-        <v>337527.6186915283</v>
+        <v>377804.6387209483</v>
       </c>
       <c r="AE3" t="n">
-        <v>461820.1785613562</v>
+        <v>516928.9742623252</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.552957332441295e-06</v>
+        <v>4.421188550809864e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.209635416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>417744.7088881511</v>
+        <v>467593.9984731001</v>
       </c>
     </row>
     <row r="4">
@@ -2904,28 +2904,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>288.8304754432067</v>
+        <v>329.1927468186472</v>
       </c>
       <c r="AB4" t="n">
-        <v>395.1905988026664</v>
+        <v>450.4160391562847</v>
       </c>
       <c r="AC4" t="n">
-        <v>357.4741627064282</v>
+        <v>407.4289645420895</v>
       </c>
       <c r="AD4" t="n">
-        <v>288830.4754432067</v>
+        <v>329192.7468186472</v>
       </c>
       <c r="AE4" t="n">
-        <v>395190.5988026664</v>
+        <v>450416.0391562848</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.735504599326663e-06</v>
+        <v>4.73732226604256e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.662760416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>357474.1627064282</v>
+        <v>407428.9645420895</v>
       </c>
     </row>
   </sheetData>
@@ -3201,28 +3201,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>263.5765716305233</v>
+        <v>309.0680588395285</v>
       </c>
       <c r="AB2" t="n">
-        <v>360.6370934825479</v>
+        <v>422.8805532246814</v>
       </c>
       <c r="AC2" t="n">
-        <v>326.2183954379123</v>
+        <v>382.5214267415012</v>
       </c>
       <c r="AD2" t="n">
-        <v>263576.5716305233</v>
+        <v>309068.0588395285</v>
       </c>
       <c r="AE2" t="n">
-        <v>360637.0934825478</v>
+        <v>422880.5532246814</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.723816386489068e-06</v>
+        <v>5.154046740521618e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.587239583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>326218.3954379123</v>
+        <v>382521.4267415012</v>
       </c>
     </row>
     <row r="3">
@@ -3307,28 +3307,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>264.5760058795231</v>
+        <v>301.1228091849561</v>
       </c>
       <c r="AB3" t="n">
-        <v>362.0045635139564</v>
+        <v>412.0095121276192</v>
       </c>
       <c r="AC3" t="n">
-        <v>327.4553560487795</v>
+        <v>372.6879025491406</v>
       </c>
       <c r="AD3" t="n">
-        <v>264576.0058795231</v>
+        <v>301122.8091849561</v>
       </c>
       <c r="AE3" t="n">
-        <v>362004.5635139564</v>
+        <v>412009.5121276192</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.72845074349532e-06</v>
+        <v>5.162815941243433e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.572048611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>327455.3560487796</v>
+        <v>372687.9025491406</v>
       </c>
     </row>
   </sheetData>
@@ -3604,28 +3604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>343.7929257206311</v>
+        <v>381.779538345072</v>
       </c>
       <c r="AB2" t="n">
-        <v>470.3926480444129</v>
+        <v>522.3676072882463</v>
       </c>
       <c r="AC2" t="n">
-        <v>425.4990339152814</v>
+        <v>472.5135759961967</v>
       </c>
       <c r="AD2" t="n">
-        <v>343792.9257206311</v>
+        <v>381779.538345072</v>
       </c>
       <c r="AE2" t="n">
-        <v>470392.6480444129</v>
+        <v>522367.6072882463</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.443088012345172e-06</v>
+        <v>4.450775781391121e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.157986111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>425499.0339152814</v>
+        <v>472513.5759961967</v>
       </c>
     </row>
     <row r="3">
@@ -3710,28 +3710,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>273.5571046198484</v>
+        <v>311.4583763897176</v>
       </c>
       <c r="AB3" t="n">
-        <v>374.2928990285823</v>
+        <v>426.151091150218</v>
       </c>
       <c r="AC3" t="n">
-        <v>338.5709100686767</v>
+        <v>385.4798291176533</v>
       </c>
       <c r="AD3" t="n">
-        <v>273557.1046198484</v>
+        <v>311458.3763897176</v>
       </c>
       <c r="AE3" t="n">
-        <v>374292.8990285823</v>
+        <v>426151.091150218</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.774778838921007e-06</v>
+        <v>5.055044432529978e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.064236111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>338570.9100686767</v>
+        <v>385479.8291176533</v>
       </c>
     </row>
   </sheetData>
@@ -4007,28 +4007,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>269.6970458486384</v>
+        <v>313.5397034833828</v>
       </c>
       <c r="AB2" t="n">
-        <v>369.0113963240386</v>
+        <v>428.9988547014415</v>
       </c>
       <c r="AC2" t="n">
-        <v>333.793466569619</v>
+        <v>388.0558061124094</v>
       </c>
       <c r="AD2" t="n">
-        <v>269697.0458486383</v>
+        <v>313539.7034833828</v>
       </c>
       <c r="AE2" t="n">
-        <v>369011.3963240386</v>
+        <v>428998.8547014415</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.618252381134763e-06</v>
+        <v>5.130931064882458e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.27734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>333793.466569619</v>
+        <v>388055.8061124093</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>686.0927567404125</v>
+        <v>747.0617443344884</v>
       </c>
       <c r="AB2" t="n">
-        <v>938.7423780484328</v>
+        <v>1022.162836636546</v>
       </c>
       <c r="AC2" t="n">
-        <v>849.1501230206921</v>
+        <v>924.609050122505</v>
       </c>
       <c r="AD2" t="n">
-        <v>686092.7567404124</v>
+        <v>747061.7443344884</v>
       </c>
       <c r="AE2" t="n">
-        <v>938742.3780484328</v>
+        <v>1022162.836636546</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.678897783754681e-06</v>
+        <v>2.888512085909602e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.37196180555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>849150.1230206921</v>
+        <v>924609.0501225049</v>
       </c>
     </row>
     <row r="3">
@@ -4410,28 +4410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>358.3948777914388</v>
+        <v>399.0124524054826</v>
       </c>
       <c r="AB3" t="n">
-        <v>490.3716830603527</v>
+        <v>545.9464405682119</v>
       </c>
       <c r="AC3" t="n">
-        <v>443.5712978700516</v>
+        <v>493.8420785210227</v>
       </c>
       <c r="AD3" t="n">
-        <v>358394.8777914388</v>
+        <v>399012.4524054826</v>
       </c>
       <c r="AE3" t="n">
-        <v>490371.6830603527</v>
+        <v>545946.4405682118</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.474029134361873e-06</v>
+        <v>4.256520631955843e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.396267361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>443571.2978700516</v>
+        <v>493842.0785210227</v>
       </c>
     </row>
     <row r="4">
@@ -4516,28 +4516,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>293.2450304381824</v>
+        <v>333.9478563982468</v>
       </c>
       <c r="AB4" t="n">
-        <v>401.2307877032134</v>
+        <v>456.9221898637219</v>
       </c>
       <c r="AC4" t="n">
-        <v>362.9378844557652</v>
+        <v>413.3141773574487</v>
       </c>
       <c r="AD4" t="n">
-        <v>293245.0304381824</v>
+        <v>333947.8563982468</v>
       </c>
       <c r="AE4" t="n">
-        <v>401230.7877032134</v>
+        <v>456922.189863722</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.72461946491317e-06</v>
+        <v>4.687656586397766e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.623697916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>362937.8844557652</v>
+        <v>413314.1773574487</v>
       </c>
     </row>
     <row r="5">
@@ -4622,28 +4622,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>294.2706090870842</v>
+        <v>334.9734350471485</v>
       </c>
       <c r="AB5" t="n">
-        <v>402.6340296559775</v>
+        <v>458.3254318164861</v>
       </c>
       <c r="AC5" t="n">
-        <v>364.2072029660201</v>
+        <v>414.5834958677035</v>
       </c>
       <c r="AD5" t="n">
-        <v>294270.6090870842</v>
+        <v>334973.4350471485</v>
       </c>
       <c r="AE5" t="n">
-        <v>402634.0296559775</v>
+        <v>458325.4318164861</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.725098056071595e-06</v>
+        <v>4.688479993491811e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.621527777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>364207.2029660201</v>
+        <v>414583.4958677035</v>
       </c>
     </row>
   </sheetData>
@@ -4919,28 +4919,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>270.5033117401783</v>
+        <v>313.5906891547847</v>
       </c>
       <c r="AB2" t="n">
-        <v>370.1145648867843</v>
+        <v>429.0686155463828</v>
       </c>
       <c r="AC2" t="n">
-        <v>334.7913502730431</v>
+        <v>388.1189090802194</v>
       </c>
       <c r="AD2" t="n">
-        <v>270503.3117401783</v>
+        <v>313590.6891547847</v>
       </c>
       <c r="AE2" t="n">
-        <v>370114.5648867843</v>
+        <v>429068.6155463828</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.516236105491265e-06</v>
+        <v>5.044198818864063e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.878472222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>334791.3502730432</v>
+        <v>388118.9090802194</v>
       </c>
     </row>
   </sheetData>
@@ -5216,28 +5216,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>468.8786611143145</v>
+        <v>517.8646684898687</v>
       </c>
       <c r="AB2" t="n">
-        <v>641.5404696032273</v>
+        <v>708.5652860045824</v>
       </c>
       <c r="AC2" t="n">
-        <v>580.3127475919988</v>
+        <v>640.9408095859292</v>
       </c>
       <c r="AD2" t="n">
-        <v>468878.6611143145</v>
+        <v>517864.6684898686</v>
       </c>
       <c r="AE2" t="n">
-        <v>641540.4696032273</v>
+        <v>708565.2860045824</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.073858431502266e-06</v>
+        <v>3.672957384181331e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.41232638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>580312.7475919988</v>
+        <v>640940.8095859291</v>
       </c>
     </row>
     <row r="3">
@@ -5322,28 +5322,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>276.7598755464142</v>
+        <v>316.0168825236739</v>
       </c>
       <c r="AB3" t="n">
-        <v>378.6750715065908</v>
+        <v>432.3882403497942</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.5348541558017</v>
+        <v>391.1217135515159</v>
       </c>
       <c r="AD3" t="n">
-        <v>276759.8755464142</v>
+        <v>316016.8825236739</v>
       </c>
       <c r="AE3" t="n">
-        <v>378675.0715065908</v>
+        <v>432388.2403497942</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.757714244423743e-06</v>
+        <v>4.884116844070683e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.83203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>342534.8541558017</v>
+        <v>391121.7135515159</v>
       </c>
     </row>
     <row r="4">
@@ -5428,28 +5428,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>276.7026586293184</v>
+        <v>315.9596656065782</v>
       </c>
       <c r="AB4" t="n">
-        <v>378.5967847963881</v>
+        <v>432.3099536395915</v>
       </c>
       <c r="AC4" t="n">
-        <v>342.4640390193447</v>
+        <v>391.0508984150588</v>
       </c>
       <c r="AD4" t="n">
-        <v>276702.6586293183</v>
+        <v>315959.6656065782</v>
       </c>
       <c r="AE4" t="n">
-        <v>378596.7847963881</v>
+        <v>432309.9536395915</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.764182612852132e-06</v>
+        <v>4.895572805201767e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.8125</v>
       </c>
       <c r="AH4" t="n">
-        <v>342464.0390193447</v>
+        <v>391050.8984150589</v>
       </c>
     </row>
   </sheetData>
@@ -5725,28 +5725,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>569.328043895695</v>
+        <v>629.1706018580567</v>
       </c>
       <c r="AB2" t="n">
-        <v>778.9797466387197</v>
+        <v>860.8589745101536</v>
       </c>
       <c r="AC2" t="n">
-        <v>704.6350129244606</v>
+        <v>778.6998022060628</v>
       </c>
       <c r="AD2" t="n">
-        <v>569328.043895695</v>
+        <v>629170.6018580566</v>
       </c>
       <c r="AE2" t="n">
-        <v>778979.7466387197</v>
+        <v>860858.9745101536</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.865822522157226e-06</v>
+        <v>3.253831556504093e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.34114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>704635.0129244606</v>
+        <v>778699.8022060628</v>
       </c>
     </row>
     <row r="3">
@@ -5831,28 +5831,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>317.8374319969721</v>
+        <v>357.7609474262541</v>
       </c>
       <c r="AB3" t="n">
-        <v>434.879196456135</v>
+        <v>489.504311567673</v>
       </c>
       <c r="AC3" t="n">
-        <v>393.3749363031465</v>
+        <v>442.7867070952697</v>
       </c>
       <c r="AD3" t="n">
-        <v>317837.4319969721</v>
+        <v>357760.9474262541</v>
       </c>
       <c r="AE3" t="n">
-        <v>434879.1964561351</v>
+        <v>489504.311567673</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.630053130887803e-06</v>
+        <v>4.586583006121521e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.044704861111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>393374.9363031465</v>
+        <v>442786.7070952697</v>
       </c>
     </row>
     <row r="4">
@@ -5937,28 +5937,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>284.795688771647</v>
+        <v>324.8044555469495</v>
       </c>
       <c r="AB4" t="n">
-        <v>389.6700256764134</v>
+        <v>444.4117854406006</v>
       </c>
       <c r="AC4" t="n">
-        <v>352.4804653311716</v>
+        <v>401.9977483740072</v>
       </c>
       <c r="AD4" t="n">
-        <v>284795.688771647</v>
+        <v>324804.4555469495</v>
       </c>
       <c r="AE4" t="n">
-        <v>389670.0256764134</v>
+        <v>444411.7854406006</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.747934580996921e-06</v>
+        <v>4.79215796179739e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.699652777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>352480.4653311716</v>
+        <v>401997.7483740072</v>
       </c>
     </row>
   </sheetData>
@@ -6234,28 +6234,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>822.5634943344226</v>
+        <v>894.9254716013681</v>
       </c>
       <c r="AB2" t="n">
-        <v>1125.467661888583</v>
+        <v>1224.476511570347</v>
       </c>
       <c r="AC2" t="n">
-        <v>1018.05460784172</v>
+        <v>1107.61419186965</v>
       </c>
       <c r="AD2" t="n">
-        <v>822563.4943344225</v>
+        <v>894925.4716013682</v>
       </c>
       <c r="AE2" t="n">
-        <v>1125467.661888583</v>
+        <v>1224476.511570347</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.511445224704591e-06</v>
+        <v>2.569356708881611e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.51128472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1018054.60784172</v>
+        <v>1107614.19186965</v>
       </c>
     </row>
     <row r="3">
@@ -6340,28 +6340,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>401.2905842486742</v>
+        <v>452.8923700133494</v>
       </c>
       <c r="AB3" t="n">
-        <v>549.0634810601504</v>
+        <v>619.6673208534986</v>
       </c>
       <c r="AC3" t="n">
-        <v>496.6616330432043</v>
+        <v>560.5271414597871</v>
       </c>
       <c r="AD3" t="n">
-        <v>401290.5842486742</v>
+        <v>452892.3700133494</v>
       </c>
       <c r="AE3" t="n">
-        <v>549063.4810601503</v>
+        <v>619667.3208534986</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.328340900323262e-06</v>
+        <v>3.958025216546144e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.771701388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>496661.6330432043</v>
+        <v>560527.1414597871</v>
       </c>
     </row>
     <row r="4">
@@ -6446,28 +6446,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>314.5263481913584</v>
+        <v>355.8760494867558</v>
       </c>
       <c r="AB4" t="n">
-        <v>430.3488255185862</v>
+        <v>486.9253110510232</v>
       </c>
       <c r="AC4" t="n">
-        <v>389.2769376094616</v>
+        <v>440.4538427682789</v>
       </c>
       <c r="AD4" t="n">
-        <v>314526.3481913584</v>
+        <v>355876.0494867558</v>
       </c>
       <c r="AE4" t="n">
-        <v>430348.8255185863</v>
+        <v>486925.3110510232</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.648228965003891e-06</v>
+        <v>4.501813725480676e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.712673611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>389276.9376094617</v>
+        <v>440453.842768279</v>
       </c>
     </row>
     <row r="5">
@@ -6552,28 +6552,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>304.1620264217097</v>
+        <v>345.511727717107</v>
       </c>
       <c r="AB5" t="n">
-        <v>416.1679032317469</v>
+        <v>472.7443887641837</v>
       </c>
       <c r="AC5" t="n">
-        <v>376.4494226426289</v>
+        <v>427.6263278014462</v>
       </c>
       <c r="AD5" t="n">
-        <v>304162.0264217097</v>
+        <v>345511.727717107</v>
       </c>
       <c r="AE5" t="n">
-        <v>416167.9032317469</v>
+        <v>472744.3887641837</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.693026469795883e-06</v>
+        <v>4.577966514610667e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.584635416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>376449.4226426288</v>
+        <v>427626.3278014461</v>
       </c>
     </row>
   </sheetData>
@@ -6849,28 +6849,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>380.6585493609829</v>
+        <v>428.6992811667528</v>
       </c>
       <c r="AB2" t="n">
-        <v>520.833820705672</v>
+        <v>586.5652693698335</v>
       </c>
       <c r="AC2" t="n">
-        <v>471.1261718523803</v>
+        <v>530.5843033107019</v>
       </c>
       <c r="AD2" t="n">
-        <v>380658.5493609829</v>
+        <v>428699.2811667528</v>
       </c>
       <c r="AE2" t="n">
-        <v>520833.820705672</v>
+        <v>586565.2693698334</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.309372959218021e-06</v>
+        <v>4.164345935354297e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.568142361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>471126.1718523803</v>
+        <v>530584.3033107019</v>
       </c>
     </row>
     <row r="3">
@@ -6955,28 +6955,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>267.4445115475143</v>
+        <v>315.3145616441411</v>
       </c>
       <c r="AB3" t="n">
-        <v>365.9293795184408</v>
+        <v>431.4272939382068</v>
       </c>
       <c r="AC3" t="n">
-        <v>331.0055931223098</v>
+        <v>390.2524785167536</v>
       </c>
       <c r="AD3" t="n">
-        <v>267444.5115475143</v>
+        <v>315314.561644141</v>
       </c>
       <c r="AE3" t="n">
-        <v>365929.3795184408</v>
+        <v>431427.2939382068</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.777621184217742e-06</v>
+        <v>5.008708291261818e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.955729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>331005.5931223098</v>
+        <v>390252.4785167536</v>
       </c>
     </row>
   </sheetData>
@@ -7252,28 +7252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>272.6190279126465</v>
+        <v>309.5406585645309</v>
       </c>
       <c r="AB2" t="n">
-        <v>373.0093810927652</v>
+        <v>423.5271850180582</v>
       </c>
       <c r="AC2" t="n">
-        <v>337.4098892832254</v>
+        <v>383.1063449040714</v>
       </c>
       <c r="AD2" t="n">
-        <v>272619.0279126465</v>
+        <v>309540.658564531</v>
       </c>
       <c r="AE2" t="n">
-        <v>373009.3810927653</v>
+        <v>423527.1850180582</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.708607987957376e-06</v>
+        <v>5.053396718655321e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.498263888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>337409.8892832254</v>
+        <v>383106.3449040714</v>
       </c>
     </row>
     <row r="3">
@@ -7358,28 +7358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>266.7429592423201</v>
+        <v>303.6645898942045</v>
       </c>
       <c r="AB3" t="n">
-        <v>364.9694847041707</v>
+        <v>415.4872886294635</v>
       </c>
       <c r="AC3" t="n">
-        <v>330.1373093218928</v>
+        <v>375.8337649427388</v>
       </c>
       <c r="AD3" t="n">
-        <v>266742.9592423201</v>
+        <v>303664.5898942045</v>
       </c>
       <c r="AE3" t="n">
-        <v>364969.4847041707</v>
+        <v>415487.2886294635</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.754637036345077e-06</v>
+        <v>5.139272210095724e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.355034722222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>330137.3093218928</v>
+        <v>375833.7649427388</v>
       </c>
     </row>
   </sheetData>
@@ -12492,28 +12492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.2191528362372</v>
+        <v>305.9679252141291</v>
       </c>
       <c r="AB2" t="n">
-        <v>357.4115690862285</v>
+        <v>418.638813630167</v>
       </c>
       <c r="AC2" t="n">
-        <v>323.3007105629258</v>
+        <v>378.6845128205684</v>
       </c>
       <c r="AD2" t="n">
-        <v>261219.1528362372</v>
+        <v>305967.9252141292</v>
       </c>
       <c r="AE2" t="n">
-        <v>357411.5690862285</v>
+        <v>418638.813630167</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.684428893885022e-06</v>
+        <v>5.162256311249047e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.869357638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>323300.7105629258</v>
+        <v>378684.5128205684</v>
       </c>
     </row>
   </sheetData>
@@ -12789,28 +12789,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>285.9869549588589</v>
+        <v>336.314014604903</v>
       </c>
       <c r="AB2" t="n">
-        <v>391.2999686287117</v>
+        <v>460.1596719096018</v>
       </c>
       <c r="AC2" t="n">
-        <v>353.9548488157419</v>
+        <v>416.2426786607045</v>
       </c>
       <c r="AD2" t="n">
-        <v>285986.9549588588</v>
+        <v>336314.014604903</v>
       </c>
       <c r="AE2" t="n">
-        <v>391299.9686287116</v>
+        <v>460159.6719096018</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.330121182900283e-06</v>
+        <v>4.806106370543074e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.96788194444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>353954.8488157419</v>
+        <v>416242.6786607045</v>
       </c>
     </row>
   </sheetData>
@@ -13086,28 +13086,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>511.9554498791805</v>
+        <v>571.3314648457333</v>
       </c>
       <c r="AB2" t="n">
-        <v>700.4800324051129</v>
+        <v>781.7209155672565</v>
       </c>
       <c r="AC2" t="n">
-        <v>633.6272012422683</v>
+        <v>707.1145685377127</v>
       </c>
       <c r="AD2" t="n">
-        <v>511955.4498791805</v>
+        <v>571331.4648457333</v>
       </c>
       <c r="AE2" t="n">
-        <v>700480.0324051129</v>
+        <v>781720.9155672565</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.967956980382063e-06</v>
+        <v>3.457622783005681e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>633627.2012422682</v>
+        <v>707114.5685377127</v>
       </c>
     </row>
     <row r="3">
@@ -13192,28 +13192,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>288.7295632589669</v>
+        <v>328.3704671397165</v>
       </c>
       <c r="AB3" t="n">
-        <v>395.0525263002584</v>
+        <v>449.2909598231525</v>
       </c>
       <c r="AC3" t="n">
-        <v>357.3492676498639</v>
+        <v>406.4112612014527</v>
       </c>
       <c r="AD3" t="n">
-        <v>288729.5632589669</v>
+        <v>328370.4671397165</v>
       </c>
       <c r="AE3" t="n">
-        <v>395052.5263002584</v>
+        <v>449290.9598231525</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.710569249650535e-06</v>
+        <v>4.762363245708137e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.884114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>357349.2676498639</v>
+        <v>406411.2612014527</v>
       </c>
     </row>
     <row r="4">
@@ -13298,28 +13298,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>280.7124682831143</v>
+        <v>320.3533721638639</v>
       </c>
       <c r="AB4" t="n">
-        <v>384.0831832650287</v>
+        <v>438.3216167879229</v>
       </c>
       <c r="AC4" t="n">
-        <v>347.4268233183469</v>
+        <v>396.4888168699357</v>
       </c>
       <c r="AD4" t="n">
-        <v>280712.4682831143</v>
+        <v>320353.3721638639</v>
       </c>
       <c r="AE4" t="n">
-        <v>384083.1832650286</v>
+        <v>438321.6167879229</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.757444125684455e-06</v>
+        <v>4.844720553790138e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.749565972222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>347426.8233183469</v>
+        <v>396488.8168699357</v>
       </c>
     </row>
   </sheetData>
@@ -13595,28 +13595,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>745.4169441738385</v>
+        <v>817.1369507261758</v>
       </c>
       <c r="AB2" t="n">
-        <v>1019.912348493283</v>
+        <v>1118.042825521572</v>
       </c>
       <c r="AC2" t="n">
-        <v>922.5733454090552</v>
+        <v>1011.338387436753</v>
       </c>
       <c r="AD2" t="n">
-        <v>745416.9441738385</v>
+        <v>817136.9507261758</v>
       </c>
       <c r="AE2" t="n">
-        <v>1019912.348493283</v>
+        <v>1118042.825521572</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.594239606480689e-06</v>
+        <v>2.725972061201196e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.91666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>922573.3454090551</v>
+        <v>1011338.387436753</v>
       </c>
     </row>
     <row r="3">
@@ -13701,28 +13701,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>378.4288722007461</v>
+        <v>419.54584014498</v>
       </c>
       <c r="AB3" t="n">
-        <v>517.783078048622</v>
+        <v>574.0411275425261</v>
       </c>
       <c r="AC3" t="n">
-        <v>468.3665877927751</v>
+        <v>519.2554480016494</v>
       </c>
       <c r="AD3" t="n">
-        <v>378428.8722007461</v>
+        <v>419545.8401449801</v>
       </c>
       <c r="AE3" t="n">
-        <v>517783.078048622</v>
+        <v>574041.1275425261</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.403695787628324e-06</v>
+        <v>4.110051923227755e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.567708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>468366.5877927751</v>
+        <v>519255.4480016493</v>
       </c>
     </row>
     <row r="4">
@@ -13807,28 +13807,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>300.7482021356474</v>
+        <v>341.7798292253096</v>
       </c>
       <c r="AB4" t="n">
-        <v>411.4969582362585</v>
+        <v>467.6382406079648</v>
       </c>
       <c r="AC4" t="n">
-        <v>372.2242660817973</v>
+        <v>423.0075032587328</v>
       </c>
       <c r="AD4" t="n">
-        <v>300748.2021356474</v>
+        <v>341779.8292253097</v>
       </c>
       <c r="AE4" t="n">
-        <v>411496.9582362585</v>
+        <v>467638.2406079648</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.698725010041923e-06</v>
+        <v>4.614519014791715e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.630208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>372224.2660817973</v>
+        <v>423007.5032587327</v>
       </c>
     </row>
     <row r="5">
@@ -13913,28 +13913,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>299.1991363367989</v>
+        <v>340.2307634264611</v>
       </c>
       <c r="AB5" t="n">
-        <v>409.3774580703139</v>
+        <v>465.5187404420203</v>
       </c>
       <c r="AC5" t="n">
-        <v>370.3070480369535</v>
+        <v>421.0902852138889</v>
       </c>
       <c r="AD5" t="n">
-        <v>299199.1363367988</v>
+        <v>340230.7634264611</v>
       </c>
       <c r="AE5" t="n">
-        <v>409377.4580703139</v>
+        <v>465518.7404420203</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.708878798011771e-06</v>
+        <v>4.631880860657699e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.601996527777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>370307.0480369534</v>
+        <v>421090.2852138889</v>
       </c>
     </row>
   </sheetData>
@@ -14210,28 +14210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>329.9319335683614</v>
+        <v>386.7268406349999</v>
       </c>
       <c r="AB2" t="n">
-        <v>451.4274270778616</v>
+        <v>529.1367245408989</v>
       </c>
       <c r="AC2" t="n">
-        <v>408.3438270199229</v>
+        <v>478.6366581987719</v>
       </c>
       <c r="AD2" t="n">
-        <v>329931.9335683614</v>
+        <v>386726.8406349999</v>
       </c>
       <c r="AE2" t="n">
-        <v>451427.4270778616</v>
+        <v>529136.7245408988</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.987537105180139e-06</v>
+        <v>4.260207457033402e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.31380208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>408343.8270199229</v>
+        <v>478636.6581987719</v>
       </c>
     </row>
   </sheetData>
@@ -14507,28 +14507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>299.223589937992</v>
+        <v>346.0294689588173</v>
       </c>
       <c r="AB2" t="n">
-        <v>409.4109165662832</v>
+        <v>473.4527851722233</v>
       </c>
       <c r="AC2" t="n">
-        <v>370.3373133010266</v>
+        <v>428.267115850543</v>
       </c>
       <c r="AD2" t="n">
-        <v>299223.589937992</v>
+        <v>346029.4689588174</v>
       </c>
       <c r="AE2" t="n">
-        <v>409410.9165662832</v>
+        <v>473452.7851722233</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.590743917053068e-06</v>
+        <v>4.773270882901421e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.754340277777779</v>
       </c>
       <c r="AH2" t="n">
-        <v>370337.3133010266</v>
+        <v>428267.115850543</v>
       </c>
     </row>
     <row r="3">
@@ -14613,28 +14613,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>270.2570954144448</v>
+        <v>307.6848199687418</v>
       </c>
       <c r="AB3" t="n">
-        <v>369.7776808476181</v>
+        <v>420.9879447774789</v>
       </c>
       <c r="AC3" t="n">
-        <v>334.4866179737552</v>
+        <v>380.8094461882071</v>
       </c>
       <c r="AD3" t="n">
-        <v>270257.0954144448</v>
+        <v>307684.8199687418</v>
       </c>
       <c r="AE3" t="n">
-        <v>369777.680847618</v>
+        <v>420987.9447774789</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.766428314348893e-06</v>
+        <v>5.096957532389391e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.198784722222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>334486.6179737552</v>
+        <v>380809.4461882071</v>
       </c>
     </row>
   </sheetData>
@@ -14910,28 +14910,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>417.8336532600281</v>
+        <v>475.945556996299</v>
       </c>
       <c r="AB2" t="n">
-        <v>571.6984379101808</v>
+        <v>651.2097083184013</v>
       </c>
       <c r="AC2" t="n">
-        <v>517.1363413798293</v>
+        <v>589.0591677350585</v>
       </c>
       <c r="AD2" t="n">
-        <v>417833.6532600281</v>
+        <v>475945.5569962991</v>
       </c>
       <c r="AE2" t="n">
-        <v>571698.4379101808</v>
+        <v>651209.7083184014</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.18944491451167e-06</v>
+        <v>3.911283557849824e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.973958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>517136.3413798293</v>
+        <v>589059.1677350585</v>
       </c>
     </row>
     <row r="3">
@@ -15016,28 +15016,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.0911000765876</v>
+        <v>309.9461570401971</v>
       </c>
       <c r="AB3" t="n">
-        <v>370.9188028200507</v>
+        <v>424.0820059217948</v>
       </c>
       <c r="AC3" t="n">
-        <v>335.5188328667136</v>
+        <v>383.6082144794514</v>
       </c>
       <c r="AD3" t="n">
-        <v>271091.1000765876</v>
+        <v>309946.1570401971</v>
       </c>
       <c r="AE3" t="n">
-        <v>370918.8028200507</v>
+        <v>424082.0059217948</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.774564735178307e-06</v>
+        <v>4.95655741643233e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.87109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>335518.8328667136</v>
+        <v>383608.2144794514</v>
       </c>
     </row>
     <row r="4">
@@ -15122,28 +15122,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>272.2949858841762</v>
+        <v>311.1500428477857</v>
       </c>
       <c r="AB4" t="n">
-        <v>372.5660124936867</v>
+        <v>425.7292155954308</v>
       </c>
       <c r="AC4" t="n">
-        <v>337.0088351609712</v>
+        <v>385.098216773709</v>
       </c>
       <c r="AD4" t="n">
-        <v>272294.9858841762</v>
+        <v>311150.0428477857</v>
       </c>
       <c r="AE4" t="n">
-        <v>372566.0124936868</v>
+        <v>425729.2155954308</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.774564735178307e-06</v>
+        <v>4.95655741643233e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.87109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>337008.8351609712</v>
+        <v>385098.216773709</v>
       </c>
     </row>
   </sheetData>
